--- a/光谱仪2/第二周实验数据.xlsx
+++ b/光谱仪2/第二周实验数据.xlsx
@@ -1204,7 +1204,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="2"/>
